--- a/7.単体テスト/単体テスト_設定画面.xlsx
+++ b/7.単体テスト/単体テスト_設定画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\単体テスト\groupA\7.単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87948D0C-1332-4A0C-AA9C-42B079752B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2456F418-DA2C-4944-8CD6-F3D79DAA0763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="45" windowWidth="10560" windowHeight="10605" xr2:uid="{B3C9EFA3-F109-4AA4-B812-E1465607304C}"/>
+    <workbookView xWindow="1560" yWindow="1155" windowWidth="20940" windowHeight="12345" xr2:uid="{B3C9EFA3-F109-4AA4-B812-E1465607304C}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -380,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -509,21 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -623,13 +608,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -650,22 +632,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,7 +970,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1006,154 +991,186 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14">
+        <v>44007</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1.2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="14">
+        <v>44007</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1.3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="14">
+        <v>44007</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1.4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="14">
+        <v>44007</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1.5</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14">
+        <v>44007</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>1.6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="14">
+        <v>44007</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" ht="19.7" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
